--- a/last season cleaned data/lastseasonipl_wk.xlsx
+++ b/last season cleaned data/lastseasonipl_wk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/last season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FD0DF-AF69-E840-A8D4-D3AB12E32935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE325C17-5301-9747-ADEF-86E6C34227B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{41964D72-3202-4EF2-95FD-D16EB596A36D}"/>
+    <workbookView xWindow="2920" yWindow="4660" windowWidth="29400" windowHeight="16740" xr2:uid="{41964D72-3202-4EF2-95FD-D16EB596A36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,6 @@
     <t>Inns</t>
   </si>
   <si>
-    <t>Dis</t>
-  </si>
-  <si>
-    <t>Ct Wk</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>D/I</t>
-  </si>
-  <si>
     <t>RR Pant</t>
   </si>
   <si>
@@ -120,17 +108,29 @@
     <t>MS Wade</t>
   </si>
   <si>
-    <t>catches Taken</t>
-  </si>
-  <si>
     <t>Stumpings</t>
+  </si>
+  <si>
+    <t>Dismissed</t>
+  </si>
+  <si>
+    <t>Catches taken</t>
+  </si>
+  <si>
+    <t>Max Dis Inns</t>
+  </si>
+  <si>
+    <t>Dis/Inn</t>
+  </si>
+  <si>
+    <t>Max Dis Inns Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +150,14 @@
       <color rgb="FF222222"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +529,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,43 +540,43 @@
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>13</v>
@@ -582,19 +593,19 @@
       <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
         <v>1.23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -611,19 +622,19 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
         <v>1.333</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>12</v>
@@ -640,19 +651,19 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -669,19 +680,19 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>14</v>
@@ -698,19 +709,19 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>16</v>
@@ -727,19 +738,19 @@
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.625</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>14</v>
@@ -756,19 +767,19 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.64200000000000002</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>9</v>
@@ -785,19 +796,19 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.77700000000000002</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>16</v>
@@ -814,19 +825,19 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.46600000000000003</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -843,19 +854,19 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
         <v>1.25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
@@ -872,19 +883,19 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.45400000000000001</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -901,19 +912,19 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
         <v>2.5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -930,19 +941,19 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -959,19 +970,19 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -988,19 +999,19 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <v>0.5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1017,19 +1028,19 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1046,14 +1057,14 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
         <v>0.5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
